--- a/docs/CareConnect-Procedure-1.xlsx
+++ b/docs/CareConnect-Procedure-1.xlsx
@@ -213,8 +213,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -330,7 +329,7 @@
     <t>anaestheticIssues</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AnaestheticIssues-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-AnaestheticIssues-1}
 </t>
   </si>
   <si>
@@ -469,8 +468,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -561,7 +559,7 @@
     <t>Procedure.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -626,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1)
+    <t xml:space="preserve">Reference(MedicationAdministration|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Procedure-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1)
 </t>
   </si>
   <si>
@@ -651,8 +649,7 @@
     <t>A code specifying the state of the procedure. Generally this will be in-progress or completed state.</t>
   </si>
   <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
-This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>A code specifying the state of the procedure.</t>
@@ -680,8 +677,7 @@
     <t>Set this to true if the record is saying that the procedure was NOT performed.</t>
   </si>
   <si>
-    <t>If true, it means the procedure did not occur as described.  Typically it would be accompanied by attributes describing the type of activity.  It might also be accompanied by body site information or time information (i.e. no procedure was done to the left arm or no procedure was done in this 2-year period).  Specifying additional information such as performer, outcome, etc. is generally inappropriate.  For example, it's not that useful to say "There was no appendectomy done at 12:03pm June 6th by Dr. Smith with a successful outcome" as it implies that there *could* have been an appendectomy done at any other time, by any other clinician or with any other outcome.
-This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
+    <t>If true, it means the procedure did not occur as described.  Typically it would be accompanied by attributes describing the type of activity.  It might also be accompanied by body site information or time information (i.e. no procedure was done to the left arm or no procedure was done in this 2-year period).  Specifying additional information such as performer, outcome, etc. is generally inappropriate.  For example, it's not that useful to say "There was no appendectomy done at 12:03pm June 6th by Dr. Smith with a successful outcome" as it implies that there *could* have been an appendectomy done at any other time, by any other clinician or with any other outcome.  This element is labeled as a modifier because it indicates that a procedure didn't happen.</t>
   </si>
   <si>
     <t>false</t>
@@ -811,7 +807,7 @@
     <t>A code from the SNOMED Clinical Terminology UK.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ProcedureCode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ProcedureCode-1</t>
   </si>
   <si>
     <t>Procedure.code.coding.id</t>
@@ -823,7 +819,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -978,7 +974,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1004,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(EpisodeOfCare|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1108,7 +1104,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -1148,7 +1144,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Location-1)
 </t>
   </si>
   <si>
@@ -1191,7 +1187,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Observation-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -1234,7 +1230,7 @@
     <t>Procedure.bodySite.coding</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Procedure.bodySite.coding.id</t>
@@ -1331,7 +1327,7 @@
     <t>Procedure.complication.coding</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ConditionCode-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ConditionCode-1</t>
   </si>
   <si>
     <t>Procedure.complication.coding.id</t>
@@ -1361,7 +1357,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -1420,7 +1416,7 @@
     <t>Procedure.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t>Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 string</t>
   </si>
   <si>
@@ -1528,7 +1524,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Substance|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)
+    <t xml:space="preserve">Reference(Device|Substance|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Medication-1)
 </t>
   </si>
   <si>
@@ -1544,8 +1540,7 @@
     <t>Used for tracking contamination, etc.</t>
   </si>
   <si>
-    <t>.participation[typeCode=DEV].role[classCode=MANU] or
-.participation[typeCode=CSM].role[classCode=ADMM] (for Medication or Substance)</t>
+    <t>.participation[typeCode=DEV].role[classCode=MANU] or .participation[typeCode=CSM].role[classCode=ADMM] (for Medication or Substance)</t>
   </si>
   <si>
     <t>Procedure.usedCode</t>
@@ -1745,7 +1740,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.4921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
